--- a/dashboard/Data/EnergyEfficiency.xlsx
+++ b/dashboard/Data/EnergyEfficiency.xlsx
@@ -33,16 +33,16 @@
     <t>Efficient electricity appliances</t>
   </si>
   <si>
-    <t>Energy Efficiency in industry</t>
-  </si>
-  <si>
-    <t>IND_EE</t>
-  </si>
-  <si>
     <t>RES_EE_COOL</t>
   </si>
   <si>
     <t>RES_EE_ELC</t>
+  </si>
+  <si>
+    <t>Energy Efficiency in commercial</t>
+  </si>
+  <si>
+    <t>COM_EE</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6"/>
     </row>
@@ -455,16 +455,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6"/>
     </row>

--- a/dashboard/Data/EnergyEfficiency.xlsx
+++ b/dashboard/Data/EnergyEfficiency.xlsx
@@ -24,25 +24,25 @@
     <t>OSEMOSYS</t>
   </si>
   <si>
-    <t>VISUALIZATION</t>
-  </si>
-  <si>
     <t>Building envelope</t>
   </si>
   <si>
-    <t>Efficient electricity appliances</t>
-  </si>
-  <si>
     <t>RES_EE_COOL</t>
   </si>
   <si>
     <t>RES_EE_ELC</t>
   </si>
   <si>
-    <t>Energy Efficiency in commercial</t>
-  </si>
-  <si>
     <t>COM_EE</t>
+  </si>
+  <si>
+    <t>Energy Efficiency commercial</t>
+  </si>
+  <si>
+    <t>Energy Efficiency residential</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -416,9 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -430,7 +428,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -443,28 +441,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6"/>
     </row>
